--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H2">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I2">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J2">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N2">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O2">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P2">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q2">
-        <v>678.8600962391434</v>
+        <v>221.9466913466244</v>
       </c>
       <c r="R2">
-        <v>6109.74086615229</v>
+        <v>1997.52022211962</v>
       </c>
       <c r="S2">
-        <v>0.4357681485511704</v>
+        <v>0.2467328713275877</v>
       </c>
       <c r="T2">
-        <v>0.4443304903398886</v>
+        <v>0.26207564657185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H3">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I3">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J3">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P3">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q3">
-        <v>0.2791009480533334</v>
+        <v>0.1547743102008889</v>
       </c>
       <c r="R3">
-        <v>2.51190853248</v>
+        <v>1.392968791808</v>
       </c>
       <c r="S3">
-        <v>0.0001791581270807719</v>
+        <v>0.0001720589287991333</v>
       </c>
       <c r="T3">
-        <v>0.0001826783777539622</v>
+        <v>0.0001827581982524874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H4">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I4">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J4">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N4">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O4">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P4">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q4">
-        <v>25.32913392712333</v>
+        <v>23.23765886990166</v>
       </c>
       <c r="R4">
-        <v>227.96220534411</v>
+        <v>209.138929829115</v>
       </c>
       <c r="S4">
-        <v>0.01625906406485692</v>
+        <v>0.02583275407763371</v>
       </c>
       <c r="T4">
-        <v>0.01657853593114828</v>
+        <v>0.02743913160496044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H5">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I5">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J5">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N5">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O5">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P5">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q5">
-        <v>6.596455249545002</v>
+        <v>1.916680751679833</v>
       </c>
       <c r="R5">
-        <v>39.57873149727001</v>
+        <v>11.500084510079</v>
       </c>
       <c r="S5">
-        <v>0.004234340929772751</v>
+        <v>0.00213072852048838</v>
       </c>
       <c r="T5">
-        <v>0.002878360565280058</v>
+        <v>0.001508816807076803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H6">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I6">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J6">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N6">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O6">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P6">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q6">
-        <v>8.635756639729999</v>
+        <v>9.78569706411</v>
       </c>
       <c r="R6">
-        <v>77.72180975757</v>
+        <v>88.07127357699</v>
       </c>
       <c r="S6">
-        <v>0.00554339208193488</v>
+        <v>0.01087852727121326</v>
       </c>
       <c r="T6">
-        <v>0.005652313346217755</v>
+        <v>0.01155499489392089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
         <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J7">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N7">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O7">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P7">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q7">
-        <v>718.8843069895032</v>
+        <v>423.8281823397667</v>
       </c>
       <c r="R7">
-        <v>6469.95876290553</v>
+        <v>3814.4536410579</v>
       </c>
       <c r="S7">
-        <v>0.4614601524154866</v>
+        <v>0.4711597354471374</v>
       </c>
       <c r="T7">
-        <v>0.4705273124637651</v>
+        <v>0.5004582147547999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H8">
         <v>14.060415</v>
       </c>
       <c r="I8">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J8">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P8">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q8">
-        <v>0.2955561723733333</v>
+        <v>0.2955561723733334</v>
       </c>
       <c r="R8">
         <v>2.66000555136</v>
       </c>
       <c r="S8">
-        <v>0.0001897209259190682</v>
+        <v>0.0003285627850805674</v>
       </c>
       <c r="T8">
-        <v>0.0001934487234131992</v>
+        <v>0.0003489940512430195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H9">
         <v>14.060415</v>
       </c>
       <c r="I9">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J9">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N9">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O9">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P9">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q9">
-        <v>26.82248815436333</v>
+        <v>44.374505701825</v>
       </c>
       <c r="R9">
-        <v>241.4023933892699</v>
+        <v>399.370551316425</v>
       </c>
       <c r="S9">
-        <v>0.01721766541783171</v>
+        <v>0.04933008525211435</v>
       </c>
       <c r="T9">
-        <v>0.01755597269568444</v>
+        <v>0.0523976149522758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H10">
         <v>14.060415</v>
       </c>
       <c r="I10">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J10">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N10">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O10">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P10">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q10">
-        <v>6.985368836565</v>
+        <v>3.6600830324675</v>
       </c>
       <c r="R10">
-        <v>41.91221301939</v>
+        <v>21.960498194805</v>
       </c>
       <c r="S10">
-        <v>0.00448398906007381</v>
+        <v>0.004068827475728104</v>
       </c>
       <c r="T10">
-        <v>0.00304806285080033</v>
+        <v>0.002881228284806226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H11">
         <v>14.060415</v>
       </c>
       <c r="I11">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J11">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N11">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O11">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P11">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q11">
-        <v>9.144903289609998</v>
+        <v>18.68671334745</v>
       </c>
       <c r="R11">
-        <v>82.30412960648998</v>
+        <v>168.18042012705</v>
       </c>
       <c r="S11">
-        <v>0.005870219206092549</v>
+        <v>0.02077357590652824</v>
       </c>
       <c r="T11">
-        <v>0.005985562246616221</v>
+        <v>0.02206535476209189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H12">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I12">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J12">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N12">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O12">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P12">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q12">
-        <v>71.70030433087601</v>
+        <v>130.94977382505</v>
       </c>
       <c r="R12">
-        <v>430.2018259852561</v>
+        <v>785.6986429502999</v>
       </c>
       <c r="S12">
-        <v>0.04602525474971306</v>
+        <v>0.1455737569211759</v>
       </c>
       <c r="T12">
-        <v>0.0312863986333884</v>
+        <v>0.1030840527077748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H13">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I13">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J13">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.189184</v>
       </c>
       <c r="O13">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P13">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q13">
-        <v>0.029478272512</v>
+        <v>0.09131769792</v>
       </c>
       <c r="R13">
-        <v>0.176869635072</v>
+        <v>0.54790618752</v>
       </c>
       <c r="S13">
-        <v>1.892244411802328E-05</v>
+        <v>0.0001015157183651774</v>
       </c>
       <c r="T13">
-        <v>1.286283222143779E-05</v>
+        <v>7.188556429363762E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H14">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I14">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J14">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N14">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O14">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P14">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q14">
-        <v>2.675229581283999</v>
+        <v>13.7103470872875</v>
       </c>
       <c r="R14">
-        <v>16.051377487704</v>
+        <v>82.26208252372498</v>
       </c>
       <c r="S14">
-        <v>0.001717260814185165</v>
+        <v>0.01524146759395123</v>
       </c>
       <c r="T14">
-        <v>0.001167335339744734</v>
+        <v>0.01079282613863874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H15">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I15">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J15">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N15">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O15">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P15">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q15">
-        <v>0.6967088675820001</v>
+        <v>1.13085223034625</v>
       </c>
       <c r="R15">
-        <v>2.786835470328</v>
+        <v>4.523408921384999</v>
       </c>
       <c r="S15">
-        <v>0.0004472254813434191</v>
+        <v>0.001257141596243851</v>
       </c>
       <c r="T15">
-        <v>0.0002026724206729343</v>
+        <v>0.0005934735001195181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H16">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I16">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J16">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N16">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O16">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P16">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q16">
-        <v>0.9120971797079999</v>
+        <v>5.773615319475</v>
       </c>
       <c r="R16">
-        <v>5.472583078247999</v>
+        <v>34.64169191685</v>
       </c>
       <c r="S16">
-        <v>0.0005854857304207849</v>
+        <v>0.006418391177952921</v>
       </c>
       <c r="T16">
-        <v>0.0003979932334045246</v>
+        <v>0.0045450072078958</v>
       </c>
     </row>
   </sheetData>
